--- a/test_data/wardrobe_order_003.xlsx
+++ b/test_data/wardrobe_order_003.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
@@ -562,11 +562,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DD-HS00-768-554-16</t>
+          <t>DD-HS00-736-554-16</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>768</v>
+        <v>736</v>
       </c>
       <c r="D4" t="n">
         <v>554</v>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -596,11 +596,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DD-HS00-736-554-16</t>
+          <t>DD-HS00-768-554-16</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>736</v>
+        <v>768</v>
       </c>
       <c r="D5" t="n">
         <v>554</v>
@@ -618,29 +618,29 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>顶底板（双门柜体）</t>
+          <t>层隔板（双门柜体）</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DD-HS00-704-554-16</t>
+          <t>CG-HS00-864-554-25</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>704</v>
+        <v>864</v>
       </c>
       <c r="D6" t="n">
         <v>554</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -659,22 +659,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>顶底板（双门柜体）</t>
+          <t>层隔板（双门柜体）</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DD-HS00-832-554-16</t>
+          <t>CG-HS00-800-554-25</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>832</v>
+        <v>800</v>
       </c>
       <c r="D7" t="n">
         <v>554</v>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -720,29 +720,29 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>层隔板（双门柜体）</t>
+          <t>后背板（双门柜体）为(1+1)组合</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CG-HS00-864-554-25</t>
+          <t>HB-HS00-2320-432-12</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>864</v>
+        <v>2320</v>
       </c>
       <c r="D9" t="n">
-        <v>554</v>
+        <v>432</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -754,37 +754,37 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>抽屉层隔板（E/F类柜体）与"抽屉组件"搭配使用</t>
+          <t>门板（L/R）</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CTCG-HS00-704-554-25</t>
+          <t>MB(R)-(门板花色)-2352-365-16</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>704</v>
+        <v>2352</v>
       </c>
       <c r="D10" t="n">
-        <v>554</v>
+        <v>365</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>HS00</t>
+          <t>(门板花色)</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -795,60 +795,60 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>层隔板（双门柜体）</t>
+          <t>门板（L/R）</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CG-HS00-704-554-25</t>
+          <t>MB(L)-(门板花色)-2288-429-16</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>704</v>
+        <v>2288</v>
       </c>
       <c r="D11" t="n">
-        <v>554</v>
+        <v>429</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>HS00</t>
+          <t>(门板花色)</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>mixed</t>
+          <t>fixed</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>抽屉层隔板（E/F类柜体）与"抽屉组件"搭配使用</t>
+          <t>门板（L/R）</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CTCG-HS00-864-554-25</t>
+          <t>MB(R)-(门板花色)-2320-349-16</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>864</v>
+        <v>2320</v>
       </c>
       <c r="D12" t="n">
-        <v>554</v>
+        <v>349</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>HS00</t>
+          <t>(门板花色)</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -856,63 +856,63 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>mixed</t>
+          <t>fixed</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>层隔板（双门柜体）</t>
+          <t>门板（L/R）</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CG-HS00-672-554-25</t>
+          <t>MB(L)-(门板花色)-2320-381-16</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>672</v>
+        <v>2320</v>
       </c>
       <c r="D13" t="n">
-        <v>554</v>
+        <v>381</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>HS00</t>
+          <t>(门板花色)</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>mixed</t>
+          <t>fixed</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>层隔板（单门柜体）</t>
+          <t>单抽屉组件</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CG-HS00-368-554-25</t>
+          <t>抽屉拉板-HS00-438-106-12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>368</v>
+        <v>438</v>
       </c>
       <c r="D14" t="n">
-        <v>554</v>
+        <v>106</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -931,26 +931,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>后背板（双门柜体）为(1+1)组合</t>
+          <t>底支撑(双门柜体）</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HB-HS00-2288-336-12</t>
+          <t>DC-HS98-704-82-16</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2288</v>
+        <v>704</v>
       </c>
       <c r="D15" t="n">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>HS00</t>
+          <t>HS98</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -958,37 +958,37 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>后背板（双门柜体）为(1+1)组合</t>
+          <t>收口条</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HB-HS00-2256-368-12</t>
+          <t>TSB50-HS03-2434-50-16</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2256</v>
+        <v>2434</v>
       </c>
       <c r="D16" t="n">
-        <v>368</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>HS00</t>
+          <t>HS03</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -999,26 +999,26 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>门板（L/R）</t>
+          <t>底支撑(双门柜体）</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MB(R)-(门板花色)-2256-397-16</t>
+          <t>DC-HS98-896-82-16</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2256</v>
+        <v>896</v>
       </c>
       <c r="D17" t="n">
-        <v>397</v>
+        <v>82</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(门板花色)</t>
+          <t>HS98</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1026,277 +1026,39 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>单抽屉组件</t>
+          <t>底支撑(双门柜体）</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>抽屉拉板-HS00-438-106-12</t>
+          <t>DC-HS98-672-82-16</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>438</v>
+        <v>672</v>
       </c>
       <c r="D18" t="n">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HS00</t>
+          <t>HS98</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>双抽屉组件</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>526抽屉后板-HS00-526-138-12</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>526</v>
-      </c>
-      <c r="D19" t="n">
-        <v>138</v>
-      </c>
-      <c r="E19" t="n">
-        <v>12</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>HS00</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>3</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>单抽屉组件</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>抽屉侧板(L)-HS00-450-138-12</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>450</v>
-      </c>
-      <c r="D20" t="n">
-        <v>138</v>
-      </c>
-      <c r="E20" t="n">
-        <v>12</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>HS00</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>底支撑(双门柜体）</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>DC-HS01-736-82-16</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>736</v>
-      </c>
-      <c r="D21" t="n">
-        <v>82</v>
-      </c>
-      <c r="E21" t="n">
-        <v>16</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>HS01</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>底支撑(双门柜体）</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DC-HS01-672-82-16</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>672</v>
-      </c>
-      <c r="D22" t="n">
-        <v>82</v>
-      </c>
-      <c r="E22" t="n">
-        <v>16</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>HS01</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>圆弧衔接板</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>YX-HS99-2434-560-16</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2434</v>
-      </c>
-      <c r="D23" t="n">
-        <v>560</v>
-      </c>
-      <c r="E23" t="n">
-        <v>16</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>HS99</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>底支撑(单门柜体）</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DC-HS01-336-82-16</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>336</v>
-      </c>
-      <c r="D24" t="n">
-        <v>82</v>
-      </c>
-      <c r="E24" t="n">
-        <v>16</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>HS01</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>底支撑(双门柜体）</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DC-HS98-736-82-16</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>736</v>
-      </c>
-      <c r="D25" t="n">
-        <v>82</v>
-      </c>
-      <c r="E25" t="n">
-        <v>16</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>HS98</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
         <is>
           <t>mixed</t>
         </is>

--- a/test_data/wardrobe_order_003.xlsx
+++ b/test_data/wardrobe_order_003.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Products" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,12 +489,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>柜体侧板（R）</t>
+          <t>柜体侧板（L）</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CB(R)-HS00-2434-574-16</t>
+          <t>CB(L)-HS00-2434-574-16</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -523,12 +523,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>柜体侧板（L）</t>
+          <t>柜体侧板（R）</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CB(L)-HS00-2434-574-16</t>
+          <t>CB(R)-HS00-2434-574-16</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -557,16 +557,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>顶底板（双门柜体）</t>
+          <t>顶底板（单门柜体）</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DD-HS00-736-554-16</t>
+          <t>DD-HS00-400-554-16</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>736</v>
+        <v>400</v>
       </c>
       <c r="D4" t="n">
         <v>554</v>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -596,11 +596,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DD-HS00-768-554-16</t>
+          <t>DD-HS00-832-554-16</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>768</v>
+        <v>832</v>
       </c>
       <c r="D5" t="n">
         <v>554</v>
@@ -625,22 +625,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>层隔板（双门柜体）</t>
+          <t>顶底板（双门柜体）</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CG-HS00-864-554-25</t>
+          <t>DD-HS00-672-554-16</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>864</v>
+        <v>672</v>
       </c>
       <c r="D6" t="n">
         <v>554</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -659,22 +659,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>层隔板（双门柜体）</t>
+          <t>顶底板（单门柜体）</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CG-HS00-800-554-25</t>
+          <t>DD-HS00-368-554-16</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>800</v>
+        <v>368</v>
       </c>
       <c r="D7" t="n">
         <v>554</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -693,16 +693,16 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>层隔板（单门柜体）</t>
+          <t>层隔板（双门柜体）</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CG-HS00-336-554-25</t>
+          <t>CG-HS00-768-554-25</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>336</v>
+        <v>768</v>
       </c>
       <c r="D8" t="n">
         <v>554</v>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -727,22 +727,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>后背板（双门柜体）为(1+1)组合</t>
+          <t>层隔板（双门柜体）</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HB-HS00-2320-432-12</t>
+          <t>CG-HS00-800-554-25</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2320</v>
+        <v>800</v>
       </c>
       <c r="D9" t="n">
-        <v>432</v>
+        <v>554</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,94 +761,94 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>门板（L/R）</t>
+          <t>抽屉层隔板（E/F类柜体）与"抽屉组件"搭配使用</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MB(R)-(门板花色)-2352-365-16</t>
+          <t>CTCG-HS00-800-554-25</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2352</v>
+        <v>800</v>
       </c>
       <c r="D10" t="n">
-        <v>365</v>
+        <v>554</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(门板花色)</t>
+          <t>HS00</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>门板（L/R）</t>
+          <t>层隔板（双门柜体）</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MB(L)-(门板花色)-2288-429-16</t>
+          <t>CG-HS00-704-554-25</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2288</v>
+        <v>704</v>
       </c>
       <c r="D11" t="n">
-        <v>429</v>
+        <v>554</v>
       </c>
       <c r="E11" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(门板花色)</t>
+          <t>HS00</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>门板（L/R）</t>
+          <t>抽屉层隔板（E/F类柜体）与"抽屉组件"搭配使用</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MB(R)-(门板花色)-2320-349-16</t>
+          <t>CTCG-HS00-736-554-25</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2320</v>
+        <v>736</v>
       </c>
       <c r="D12" t="n">
-        <v>349</v>
+        <v>554</v>
       </c>
       <c r="E12" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(门板花色)</t>
+          <t>HS00</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -856,71 +856,71 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>门板（L/R）</t>
+          <t>后背板（双门柜体）为(1+1)组合</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MB(L)-(门板花色)-2320-381-16</t>
+          <t>HB-HS00-2320-368-12</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>2320</v>
       </c>
       <c r="D13" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(门板花色)</t>
+          <t>HS00</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>单抽屉组件</t>
+          <t>门板（L/R）</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>抽屉拉板-HS00-438-106-12</t>
+          <t>MB(L)-HS97-2352-429-16</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>438</v>
+        <v>2352</v>
       </c>
       <c r="D14" t="n">
-        <v>106</v>
+        <v>429</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>HS00</t>
+          <t>HS97</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -931,30 +931,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>底支撑(双门柜体）</t>
+          <t>单抽屉组件</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DC-HS98-704-82-16</t>
+          <t>CTE1抽屉吊板(R)-HS00-534-179-16</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>704</v>
+        <v>534</v>
       </c>
       <c r="D15" t="n">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>HS98</t>
+          <t>HS00</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -965,34 +965,34 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>收口条</t>
+          <t>底支撑(单门柜体）</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TSB50-HS03-2434-50-16</t>
+          <t>DC-HS99-368-82-16</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2434</v>
+        <v>368</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>HS03</t>
+          <t>HS99</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>mixed</t>
         </is>
       </c>
     </row>
@@ -1004,11 +1004,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DC-HS98-896-82-16</t>
+          <t>DC-HS01-704-82-16</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>896</v>
+        <v>704</v>
       </c>
       <c r="D17" t="n">
         <v>82</v>
@@ -1018,15 +1018,15 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>HS98</t>
+          <t>HS01</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>mixed</t>
+          <t>fixed</t>
         </is>
       </c>
     </row>
@@ -1038,11 +1038,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DC-HS98-672-82-16</t>
+          <t>DC-HS98-768-82-16</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>672</v>
+        <v>768</v>
       </c>
       <c r="D18" t="n">
         <v>82</v>
@@ -1056,9 +1056,77 @@
         </is>
       </c>
       <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>底支撑(双门柜体）</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DC-HS02-832-82-16</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>832</v>
+      </c>
+      <c r="D19" t="n">
+        <v>82</v>
+      </c>
+      <c r="E19" t="n">
+        <v>16</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>HS02</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>fixed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>底支撑(双门柜体）</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DC-HS99-672-82-16</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>672</v>
+      </c>
+      <c r="D20" t="n">
+        <v>82</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>HS99</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>2</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>mixed</t>
         </is>
